--- a/ListadoMédicos.xlsx
+++ b/ListadoMédicos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xamarin\MutualWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F790FE6B-216D-4DD5-8914-0FC4A384DC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF52A8D-D7CE-438E-9F5B-E73F8FABF0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1A1D060-0215-4B05-9A5E-0F6781BCB9FA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B1A1D060-0215-4B05-9A5E-0F6781BCB9FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="279">
   <si>
     <t>ID</t>
   </si>
@@ -832,19 +832,55 @@
   </si>
   <si>
     <t>ANATOMÍA PATOLÓGICA</t>
+  </si>
+  <si>
+    <t>Tipo de Cliente</t>
+  </si>
+  <si>
+    <t>Descripción Tipo de Cliente</t>
+  </si>
+  <si>
+    <t>Cliente Inae</t>
+  </si>
+  <si>
+    <t>Médicos Staff</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Médicos contratados</t>
+  </si>
+  <si>
+    <t>Personal a sueldo</t>
+  </si>
+  <si>
+    <t>Jubilados</t>
+  </si>
+  <si>
+    <t>Adherente</t>
+  </si>
+  <si>
+    <t>Aportantes Externos</t>
+  </si>
+  <si>
+    <t>Pasantes</t>
+  </si>
+  <si>
+    <t>Pensionados</t>
+  </si>
+  <si>
+    <t>Honor. Admin. (Camilucci)</t>
+  </si>
+  <si>
+    <t>Honor. Admin. (Oviedo)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,20 +889,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -934,33 +959,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Hoja1" xfId="1" xr:uid="{D9325223-B5F3-4960-AB00-233385ECD980}"/>
+    <cellStyle name="Normal_Hoja2" xfId="2" xr:uid="{BC7C88E5-509F-4A7B-9069-5FBD8125986F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1294,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A69077-8468-43E7-A882-E23287BD0D8A}">
   <dimension ref="A1:BE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1664,17 +1697,17 @@
       <c r="AT2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AU2" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AV2" s="6"/>
       <c r="AW2" s="6"/>
-      <c r="AX2" s="7" t="s">
+      <c r="AX2" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
-      <c r="BA2" s="7" t="s">
+      <c r="BA2" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BB2" s="4" t="s">
@@ -1821,17 +1854,17 @@
       <c r="AT3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AU3" s="7" t="s">
+      <c r="AU3" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AV3" s="6"/>
       <c r="AW3" s="6"/>
-      <c r="AX3" s="7" t="s">
+      <c r="AX3" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AY3" s="6"/>
       <c r="AZ3" s="6"/>
-      <c r="BA3" s="7" t="s">
+      <c r="BA3" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BB3" s="4" t="s">
@@ -1978,17 +2011,17 @@
       <c r="AT4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AU4" s="7" t="s">
+      <c r="AU4" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AV4" s="6"/>
       <c r="AW4" s="6"/>
-      <c r="AX4" s="7" t="s">
+      <c r="AX4" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
-      <c r="BA4" s="7" t="s">
+      <c r="BA4" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BB4" s="4" t="s">
@@ -2133,17 +2166,17 @@
       <c r="AT5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AU5" s="7" t="s">
+      <c r="AU5" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
-      <c r="AX5" s="7" t="s">
+      <c r="AX5" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AY5" s="6"/>
       <c r="AZ5" s="6"/>
-      <c r="BA5" s="7" t="s">
+      <c r="BA5" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BB5" s="4" t="s">
@@ -2290,17 +2323,17 @@
       <c r="AT6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AU6" s="7" t="s">
+      <c r="AU6" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AV6" s="6"/>
       <c r="AW6" s="6"/>
-      <c r="AX6" s="7" t="s">
+      <c r="AX6" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AY6" s="6"/>
       <c r="AZ6" s="6"/>
-      <c r="BA6" s="7" t="s">
+      <c r="BA6" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BB6" s="4" t="s">
@@ -2449,17 +2482,17 @@
       <c r="AT7" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AU7" s="7" t="s">
+      <c r="AU7" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AV7" s="6"/>
       <c r="AW7" s="6"/>
-      <c r="AX7" s="7" t="s">
+      <c r="AX7" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AY7" s="6"/>
       <c r="AZ7" s="6"/>
-      <c r="BA7" s="7" t="s">
+      <c r="BA7" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BB7" s="4" t="s">
@@ -2604,17 +2637,17 @@
       <c r="AT8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AU8" s="7" t="s">
+      <c r="AU8" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AV8" s="6"/>
       <c r="AW8" s="6"/>
-      <c r="AX8" s="7" t="s">
+      <c r="AX8" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AY8" s="6"/>
       <c r="AZ8" s="6"/>
-      <c r="BA8" s="7" t="s">
+      <c r="BA8" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BB8" s="4" t="s">
@@ -2759,17 +2792,17 @@
       <c r="AT9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AU9" s="7" t="s">
+      <c r="AU9" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AV9" s="6"/>
       <c r="AW9" s="6"/>
-      <c r="AX9" s="7" t="s">
+      <c r="AX9" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AY9" s="6"/>
       <c r="AZ9" s="6"/>
-      <c r="BA9" s="7" t="s">
+      <c r="BA9" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BB9" s="4" t="s">
@@ -2920,17 +2953,17 @@
       <c r="AT10" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="AU10" s="7" t="s">
+      <c r="AU10" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AV10" s="6"/>
       <c r="AW10" s="6"/>
-      <c r="AX10" s="7" t="s">
+      <c r="AX10" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AY10" s="6"/>
       <c r="AZ10" s="6"/>
-      <c r="BA10" s="7" t="s">
+      <c r="BA10" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BB10" s="4" t="s">
@@ -3075,17 +3108,17 @@
       <c r="AT11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AU11" s="7" t="s">
+      <c r="AU11" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AV11" s="6"/>
       <c r="AW11" s="6"/>
-      <c r="AX11" s="7" t="s">
+      <c r="AX11" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
-      <c r="BA11" s="7" t="s">
+      <c r="BA11" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BB11" s="4" t="s">
@@ -3232,17 +3265,17 @@
       <c r="AT12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AU12" s="7" t="s">
+      <c r="AU12" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AV12" s="6"/>
       <c r="AW12" s="6"/>
-      <c r="AX12" s="7" t="s">
+      <c r="AX12" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AY12" s="6"/>
       <c r="AZ12" s="6"/>
-      <c r="BA12" s="7" t="s">
+      <c r="BA12" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BB12" s="4" t="s">
@@ -3387,17 +3420,17 @@
       <c r="AT13" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="AU13" s="7" t="s">
+      <c r="AU13" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AV13" s="6"/>
       <c r="AW13" s="6"/>
-      <c r="AX13" s="7" t="s">
+      <c r="AX13" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AY13" s="6"/>
       <c r="AZ13" s="6"/>
-      <c r="BA13" s="7" t="s">
+      <c r="BA13" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BB13" s="4" t="s">
@@ -3542,17 +3575,17 @@
       <c r="AT14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AU14" s="7" t="s">
+      <c r="AU14" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AV14" s="6"/>
       <c r="AW14" s="6"/>
-      <c r="AX14" s="7" t="s">
+      <c r="AX14" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AY14" s="6"/>
       <c r="AZ14" s="6"/>
-      <c r="BA14" s="7" t="s">
+      <c r="BA14" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BB14" s="4" t="s">
@@ -3573,93 +3606,186 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A79F5A-B10C-4539-8141-4D342A1050D9}">
-  <dimension ref="A1:A68"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="7" style="2"/>
+    <col min="1" max="1" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="4.33203125" style="2"/>
+    <col min="6" max="6" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="4.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F1" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F6" s="8">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F8" s="8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F9" s="8">
+        <v>7</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F10" s="8">
+        <v>8</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>242</v>
       </c>
